--- a/Code/Results/Cases/Case_1_222/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_222/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.21878767545206</v>
+        <v>13.24368449333586</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.783329669089388</v>
+        <v>4.337361940648294</v>
       </c>
       <c r="E2">
-        <v>10.32929927518093</v>
+        <v>16.84989591380234</v>
       </c>
       <c r="F2">
-        <v>15.74476637894177</v>
+        <v>20.90432518335481</v>
       </c>
       <c r="G2">
-        <v>18.72068886145343</v>
+        <v>22.95729994256521</v>
       </c>
       <c r="H2">
-        <v>7.734230954960372</v>
+        <v>12.8213740005175</v>
       </c>
       <c r="I2">
-        <v>14.75127221642831</v>
+        <v>24.15813738338176</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.46928162632456</v>
+        <v>10.27389213124116</v>
       </c>
       <c r="L2">
-        <v>6.774435808194277</v>
+        <v>8.566822695259878</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.24199200362004</v>
+        <v>18.51634187932808</v>
       </c>
       <c r="O2">
-        <v>12.29306147543489</v>
+        <v>18.73949653224093</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.5537355897979</v>
+        <v>13.09908436810551</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.567120039477592</v>
+        <v>4.252353523591249</v>
       </c>
       <c r="E3">
-        <v>10.43597678222144</v>
+        <v>16.90999013700898</v>
       </c>
       <c r="F3">
-        <v>15.34403033279025</v>
+        <v>20.90163755142451</v>
       </c>
       <c r="G3">
-        <v>18.18129766446657</v>
+        <v>22.94292176482539</v>
       </c>
       <c r="H3">
-        <v>7.753956746970622</v>
+        <v>12.85609689819221</v>
       </c>
       <c r="I3">
-        <v>14.98585795029961</v>
+        <v>24.26171910333506</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.83366375095646</v>
+        <v>9.992388720086332</v>
       </c>
       <c r="L3">
-        <v>6.480641049675461</v>
+        <v>8.523149269659488</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.39719121822748</v>
+        <v>18.56724572392944</v>
       </c>
       <c r="O3">
-        <v>12.2075708820202</v>
+        <v>18.78500994135695</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.12872038353925</v>
+        <v>13.01176250836271</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.428404068719959</v>
+        <v>4.198551107563008</v>
       </c>
       <c r="E4">
-        <v>10.50674076990805</v>
+        <v>16.94938549518691</v>
       </c>
       <c r="F4">
-        <v>15.10597105453776</v>
+        <v>20.9055191971832</v>
       </c>
       <c r="G4">
-        <v>17.86216879663599</v>
+        <v>22.94176770243483</v>
       </c>
       <c r="H4">
-        <v>7.770626332027714</v>
+        <v>12.87933789514048</v>
       </c>
       <c r="I4">
-        <v>15.13814385174919</v>
+        <v>24.32920374005498</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.42575548260763</v>
+        <v>9.81378304373689</v>
       </c>
       <c r="L4">
-        <v>6.295980565252497</v>
+        <v>8.497685128956274</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.49534665328575</v>
+        <v>18.6001137216249</v>
       </c>
       <c r="O4">
-        <v>12.16472522400585</v>
+        <v>18.81689362474793</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.95151201377949</v>
+        <v>12.97658393914115</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.370416667024466</v>
+        <v>4.176237352236346</v>
       </c>
       <c r="E5">
-        <v>10.53687483743497</v>
+        <v>16.96606811446764</v>
       </c>
       <c r="F5">
-        <v>15.0110846630903</v>
+        <v>20.90849330204366</v>
       </c>
       <c r="G5">
-        <v>17.73531116249652</v>
+        <v>22.94322799543792</v>
       </c>
       <c r="H5">
-        <v>7.778531616638283</v>
+        <v>12.88929189257574</v>
       </c>
       <c r="I5">
-        <v>15.20222930561797</v>
+        <v>24.35768225928737</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.25521416015113</v>
+        <v>9.739617831980595</v>
       </c>
       <c r="L5">
-        <v>6.219766601030786</v>
+        <v>8.487656415489422</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.53607201286646</v>
+        <v>18.61391427322798</v>
       </c>
       <c r="O5">
-        <v>12.14963606308122</v>
+        <v>18.83087534297428</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.92185041466545</v>
+        <v>12.9707681665252</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.360701048457992</v>
+        <v>4.172509146373072</v>
       </c>
       <c r="E6">
-        <v>10.54195617786004</v>
+        <v>16.9688762438348</v>
       </c>
       <c r="F6">
-        <v>14.99546041666835</v>
+        <v>20.90907126008923</v>
       </c>
       <c r="G6">
-        <v>17.71444363261531</v>
+        <v>22.94358706693141</v>
       </c>
       <c r="H6">
-        <v>7.779910480382175</v>
+        <v>12.89097392579934</v>
       </c>
       <c r="I6">
-        <v>15.21299183371149</v>
+        <v>24.36247019500724</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.22663918747444</v>
+        <v>9.727221346276306</v>
       </c>
       <c r="L6">
-        <v>6.20705664452023</v>
+        <v>8.486012414461202</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.54287847931425</v>
+        <v>18.61623043047996</v>
       </c>
       <c r="O6">
-        <v>12.14727200423309</v>
+        <v>18.83325667574419</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.12634646592699</v>
+        <v>13.01128638530501</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.427627882353326</v>
+        <v>4.198251730124563</v>
       </c>
       <c r="E7">
-        <v>10.50714195009298</v>
+        <v>16.94960793628448</v>
       </c>
       <c r="F7">
-        <v>15.1046826331848</v>
+        <v>20.90555366864527</v>
       </c>
       <c r="G7">
-        <v>17.86044483270822</v>
+        <v>22.94177957985786</v>
       </c>
       <c r="H7">
-        <v>7.770728486257456</v>
+        <v>12.87947018210655</v>
       </c>
       <c r="I7">
-        <v>15.13899997889069</v>
+        <v>24.32958385008392</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.42347280173196</v>
+        <v>9.812788329014841</v>
       </c>
       <c r="L7">
-        <v>6.294956461556554</v>
+        <v>8.497548458050549</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.49589294069309</v>
+        <v>18.60029819312589</v>
       </c>
       <c r="O7">
-        <v>12.16451220332205</v>
+        <v>18.81707818527511</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.99303550972091</v>
+        <v>13.19354559312829</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.710039888840121</v>
+        <v>4.308393439166779</v>
       </c>
       <c r="E8">
-        <v>10.36497290016443</v>
+        <v>16.87009853694783</v>
       </c>
       <c r="F8">
-        <v>15.60500338046265</v>
+        <v>20.90225139211925</v>
       </c>
       <c r="G8">
-        <v>18.53230067812889</v>
+        <v>22.95075062659974</v>
       </c>
       <c r="H8">
-        <v>7.740065982935531</v>
+        <v>12.83294778789675</v>
       </c>
       <c r="I8">
-        <v>14.83041581234466</v>
+        <v>24.19304665418053</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.25384602575822</v>
+        <v>10.17806396785093</v>
       </c>
       <c r="L8">
-        <v>6.674083304342249</v>
+        <v>8.551488693006835</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.2949144481648</v>
+        <v>18.53355939450267</v>
       </c>
       <c r="O8">
-        <v>12.26155106279697</v>
+        <v>18.75437134221456</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.55405201752259</v>
+        <v>13.56087524913835</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.215118630438353</v>
+        <v>4.511004335914559</v>
       </c>
       <c r="E9">
-        <v>10.12920204017436</v>
+        <v>16.73396230285814</v>
       </c>
       <c r="F9">
-        <v>16.64439331499128</v>
+        <v>20.93957223615115</v>
       </c>
       <c r="G9">
-        <v>19.93832051436517</v>
+        <v>23.02911343592013</v>
       </c>
       <c r="H9">
-        <v>7.717629210184938</v>
+        <v>12.75695722577475</v>
       </c>
       <c r="I9">
-        <v>14.29306757999194</v>
+        <v>23.95607541693242</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.73806929304617</v>
+        <v>10.84599127654855</v>
       </c>
       <c r="L9">
-        <v>7.529783912255154</v>
+        <v>8.667605346471174</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.92321646648618</v>
+        <v>18.41543519386444</v>
       </c>
       <c r="O9">
-        <v>12.53054372078894</v>
+        <v>18.6627110635667</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.60999792126677</v>
+        <v>13.83451619385099</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.554986924327973</v>
+        <v>4.65092969959322</v>
       </c>
       <c r="E10">
-        <v>9.98405713101409</v>
+        <v>16.64595628592924</v>
       </c>
       <c r="F10">
-        <v>17.43669010381104</v>
+        <v>20.99350266056049</v>
       </c>
       <c r="G10">
-        <v>21.0157559821308</v>
+        <v>23.1234493025956</v>
       </c>
       <c r="H10">
-        <v>7.726231466269613</v>
+        <v>12.71041364603971</v>
       </c>
       <c r="I10">
-        <v>13.94321347720236</v>
+        <v>23.80066802454267</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.73630355407581</v>
+        <v>11.30403181609563</v>
       </c>
       <c r="L10">
-        <v>8.153306308049256</v>
+        <v>8.758679313211221</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.6633931791702</v>
+        <v>18.33635644764661</v>
       </c>
       <c r="O10">
-        <v>12.77869974808118</v>
+        <v>18.6145267774034</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.06972400449171</v>
+        <v>13.95933517427322</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.702601968147044</v>
+        <v>4.712498016448287</v>
       </c>
       <c r="E11">
-        <v>9.924560922854907</v>
+        <v>16.60851906062887</v>
       </c>
       <c r="F11">
-        <v>17.80197279443329</v>
+        <v>21.02373261370031</v>
       </c>
       <c r="G11">
-        <v>21.51366336519498</v>
+        <v>23.17424689243916</v>
       </c>
       <c r="H11">
-        <v>7.736047024150944</v>
+        <v>12.69125525512587</v>
       </c>
       <c r="I11">
-        <v>13.79473402629503</v>
+        <v>23.73401493414901</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.16978484321579</v>
+        <v>11.50473418890414</v>
       </c>
       <c r="L11">
-        <v>8.422868664875402</v>
+        <v>8.80124015327614</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.54798940171326</v>
+        <v>18.30204108056358</v>
       </c>
       <c r="O11">
-        <v>12.90299057851148</v>
+        <v>18.59677846294728</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.24079166826951</v>
+        <v>14.00660943796252</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.757480804981681</v>
+        <v>4.735501330120637</v>
       </c>
       <c r="E12">
-        <v>9.903009570195689</v>
+        <v>16.59471534308652</v>
       </c>
       <c r="F12">
-        <v>17.9408894087724</v>
+        <v>21.03599227551651</v>
       </c>
       <c r="G12">
-        <v>21.70318296217874</v>
+        <v>23.19460472459778</v>
       </c>
       <c r="H12">
-        <v>7.740650003762117</v>
+        <v>12.68429006892462</v>
       </c>
       <c r="I12">
-        <v>13.74013098897508</v>
+        <v>23.70935555392321</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.33093201128715</v>
+        <v>11.57959129146671</v>
       </c>
       <c r="L12">
-        <v>8.522931853005286</v>
+        <v>8.817508672190813</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.50468432058044</v>
+        <v>18.28928413670351</v>
       </c>
       <c r="O12">
-        <v>12.95172293651522</v>
+        <v>18.59065804466384</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.20408423536191</v>
+        <v>13.99642836208732</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.745707211847888</v>
+        <v>4.730561173546151</v>
       </c>
       <c r="E13">
-        <v>9.907606865084167</v>
+        <v>16.59767164186959</v>
       </c>
       <c r="F13">
-        <v>17.91094650977135</v>
+        <v>21.03331593498239</v>
       </c>
       <c r="G13">
-        <v>21.66232541216639</v>
+        <v>23.19017061263372</v>
       </c>
       <c r="H13">
-        <v>7.739618669748424</v>
+        <v>12.6857772630317</v>
       </c>
       <c r="I13">
-        <v>13.75181704270558</v>
+        <v>23.71464057523398</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.29636012302445</v>
+        <v>11.56352101089756</v>
       </c>
       <c r="L13">
-        <v>8.501470839741806</v>
+        <v>8.813998387758932</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.5139933247261</v>
+        <v>18.29202102183241</v>
       </c>
       <c r="O13">
-        <v>12.94115308233463</v>
+        <v>18.59194947065621</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.08385863974247</v>
+        <v>13.96322452585241</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.707137390642004</v>
+        <v>4.714396814333885</v>
       </c>
       <c r="E14">
-        <v>9.922768034074847</v>
+        <v>16.607375948997</v>
       </c>
       <c r="F14">
-        <v>17.81339026488972</v>
+        <v>21.02472498844271</v>
       </c>
       <c r="G14">
-        <v>21.52923653825459</v>
+        <v>23.17589933345065</v>
       </c>
       <c r="H14">
-        <v>7.736407743094076</v>
+        <v>12.69067641952183</v>
       </c>
       <c r="I14">
-        <v>13.79020873626756</v>
+        <v>23.73197455738424</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.18310287624268</v>
+        <v>11.51091589458224</v>
       </c>
       <c r="L14">
-        <v>8.431141220971869</v>
+        <v>8.802575598384935</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.54441876420649</v>
+        <v>18.30098680337725</v>
       </c>
       <c r="O14">
-        <v>12.90696629386633</v>
+        <v>18.59626289459759</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.00982226228674</v>
+        <v>13.94288606822078</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.683379091037526</v>
+        <v>4.704454812868077</v>
       </c>
       <c r="E15">
-        <v>9.932183335952004</v>
+        <v>16.6133686708252</v>
       </c>
       <c r="F15">
-        <v>17.7537083165724</v>
+        <v>21.01956833913748</v>
       </c>
       <c r="G15">
-        <v>21.4478383958461</v>
+        <v>23.16730348376302</v>
       </c>
       <c r="H15">
-        <v>7.7345574522572</v>
+        <v>12.69371501887069</v>
       </c>
       <c r="I15">
-        <v>13.81393889123764</v>
+        <v>23.74266772863328</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.1133375542707</v>
+        <v>11.47854349948939</v>
       </c>
       <c r="L15">
-        <v>8.387800349868137</v>
+        <v>8.795598230393059</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.56310661395783</v>
+        <v>18.30650951269763</v>
       </c>
       <c r="O15">
-        <v>12.88624357483663</v>
+        <v>18.59898320921646</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.5795336517189</v>
+        <v>13.82636230039674</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.545197928530269</v>
+        <v>4.646863116100828</v>
       </c>
       <c r="E16">
-        <v>9.988080085772475</v>
+        <v>16.6484551132478</v>
       </c>
       <c r="F16">
-        <v>17.41290649593295</v>
+        <v>20.99164112393271</v>
       </c>
       <c r="G16">
-        <v>20.983360289025</v>
+        <v>23.12028723747055</v>
       </c>
       <c r="H16">
-        <v>7.725711955588128</v>
+        <v>12.71170622919351</v>
       </c>
       <c r="I16">
-        <v>13.95313903587469</v>
+        <v>23.80510525340041</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.70755613877392</v>
+        <v>11.29075750509793</v>
       </c>
       <c r="L16">
-        <v>8.135407269212275</v>
+        <v>8.755919686135574</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.67099077140156</v>
+        <v>18.33863232507785</v>
       </c>
       <c r="O16">
-        <v>12.7708088784211</v>
+        <v>18.6157706669114</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.31023847055259</v>
+        <v>13.7549362947969</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.458626037269188</v>
+        <v>4.610990128990146</v>
       </c>
       <c r="E17">
-        <v>10.0240709958111</v>
+        <v>16.67064432826932</v>
       </c>
       <c r="F17">
-        <v>17.20500196085773</v>
+        <v>20.97596312919307</v>
       </c>
       <c r="G17">
-        <v>20.70030182569307</v>
+        <v>23.09345572576078</v>
       </c>
       <c r="H17">
-        <v>7.721823807582908</v>
+        <v>12.72325922247052</v>
       </c>
       <c r="I17">
-        <v>14.04132695028951</v>
+        <v>23.84444359036013</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.45331080470916</v>
+        <v>11.17356253694635</v>
       </c>
       <c r="L17">
-        <v>7.976972422598018</v>
+        <v>8.731860098941615</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.73788504336331</v>
+        <v>18.35876264733074</v>
       </c>
       <c r="O17">
-        <v>12.70293443014391</v>
+        <v>18.62713807944309</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.15340748872463</v>
+        <v>13.7138881882589</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.408174602986914</v>
+        <v>4.590161374437965</v>
       </c>
       <c r="E18">
-        <v>10.04538424042112</v>
+        <v>16.68365146456069</v>
       </c>
       <c r="F18">
-        <v>17.08588439512305</v>
+        <v>20.96748224515095</v>
       </c>
       <c r="G18">
-        <v>20.53823392610522</v>
+        <v>23.07876583121632</v>
       </c>
       <c r="H18">
-        <v>7.720140775083541</v>
+        <v>12.73009381584299</v>
       </c>
       <c r="I18">
-        <v>14.09304887273881</v>
+        <v>23.86745049564172</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.30513623121201</v>
+        <v>11.10543611209122</v>
       </c>
       <c r="L18">
-        <v>7.884518678618714</v>
+        <v>8.718128773119449</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.77662388759126</v>
+        <v>18.37049718163123</v>
       </c>
       <c r="O18">
-        <v>12.66496694538583</v>
+        <v>18.63406887599618</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.09997600181852</v>
+        <v>13.69999713428428</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.390980164948024</v>
+        <v>4.583075893424326</v>
       </c>
       <c r="E19">
-        <v>10.05270452488047</v>
+        <v>16.68809746429293</v>
       </c>
       <c r="F19">
-        <v>17.04563627846158</v>
+        <v>20.96470313467017</v>
       </c>
       <c r="G19">
-        <v>20.48349225399011</v>
+        <v>23.07392000384242</v>
       </c>
       <c r="H19">
-        <v>7.719664826758195</v>
+        <v>12.73244045851703</v>
       </c>
       <c r="I19">
-        <v>14.11072998596876</v>
+        <v>23.87530561482442</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.25463509720346</v>
+        <v>11.08224756296332</v>
       </c>
       <c r="L19">
-        <v>7.852987374751254</v>
+        <v>8.713498308727919</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.78978554400427</v>
+        <v>18.37449713132024</v>
       </c>
       <c r="O19">
-        <v>12.65229505861133</v>
+        <v>18.63648292251731</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.33910657533194</v>
+        <v>13.76253646741779</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.467909932831884</v>
+        <v>4.614829195754901</v>
       </c>
       <c r="E20">
-        <v>10.02017606069174</v>
+        <v>16.66825694881236</v>
       </c>
       <c r="F20">
-        <v>17.22708657658043</v>
+        <v>20.97757658086126</v>
       </c>
       <c r="G20">
-        <v>20.73035841124414</v>
+        <v>23.09623517989695</v>
       </c>
       <c r="H20">
-        <v>7.722180170022511</v>
+        <v>12.72200976191928</v>
       </c>
       <c r="I20">
-        <v>14.0318352370407</v>
+        <v>23.84021657790452</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.48057667908683</v>
+        <v>11.18611287608119</v>
       </c>
       <c r="L20">
-        <v>7.993975272231648</v>
+        <v>8.734410275974616</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.73073685266108</v>
+        <v>18.3566035901898</v>
       </c>
       <c r="O20">
-        <v>12.71004861621298</v>
+        <v>18.62588736455026</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.11925414883583</v>
+        <v>13.97297740003204</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.718494055475793</v>
+        <v>4.719153214039629</v>
       </c>
       <c r="E21">
-        <v>9.918287947488851</v>
+        <v>16.60451544116381</v>
       </c>
       <c r="F21">
-        <v>17.84202964112794</v>
+        <v>21.02722637424105</v>
       </c>
       <c r="G21">
-        <v>21.56830264765621</v>
+        <v>23.18006080965002</v>
       </c>
       <c r="H21">
-        <v>7.73732652630935</v>
+        <v>12.68922955677678</v>
       </c>
       <c r="I21">
-        <v>13.77888736884563</v>
+        <v>23.72686739131603</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.21645101758771</v>
+        <v>11.52639867278709</v>
       </c>
       <c r="L21">
-        <v>8.451853301912559</v>
+        <v>8.805926721216572</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.5354713749716</v>
+        <v>18.29834689607983</v>
       </c>
       <c r="O21">
-        <v>12.91696237858425</v>
+        <v>18.59497963592964</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.61150403952967</v>
+        <v>14.11054116527491</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.876316879608964</v>
+        <v>4.785515899113601</v>
       </c>
       <c r="E22">
-        <v>9.857421973449847</v>
+        <v>16.56503027016018</v>
       </c>
       <c r="F22">
-        <v>18.24733818945823</v>
+        <v>21.06440577946436</v>
       </c>
       <c r="G22">
-        <v>22.12156190554343</v>
+        <v>23.24137813614813</v>
       </c>
       <c r="H22">
-        <v>7.752407313231184</v>
+        <v>12.66949426351676</v>
       </c>
       <c r="I22">
-        <v>13.62307871336956</v>
+        <v>23.65617164619306</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.67987455869373</v>
+        <v>11.74210717616096</v>
       </c>
       <c r="L22">
-        <v>8.739369434766129</v>
+        <v>8.853545560211913</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.41015895692601</v>
+        <v>18.26165695494869</v>
       </c>
       <c r="O22">
-        <v>13.06191281732883</v>
+        <v>18.57827989906836</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.3504075604827</v>
+        <v>14.03713142828785</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.79263200854129</v>
+        <v>4.750266926363346</v>
       </c>
       <c r="E23">
-        <v>9.889369934810452</v>
+        <v>16.58590553414052</v>
       </c>
       <c r="F23">
-        <v>18.03073854344238</v>
+        <v>21.04413215449667</v>
       </c>
       <c r="G23">
-        <v>21.82580738979197</v>
+        <v>23.20805858484335</v>
       </c>
       <c r="H23">
-        <v>7.743871980156969</v>
+        <v>12.67987287229665</v>
       </c>
       <c r="I23">
-        <v>13.70533511537588</v>
+        <v>23.69359380495335</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.43414889849192</v>
+        <v>11.62760440333908</v>
       </c>
       <c r="L23">
-        <v>8.586986078561463</v>
+        <v>8.828053766795131</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.47683139511871</v>
+        <v>18.281112698814</v>
       </c>
       <c r="O23">
-        <v>12.98365315413771</v>
+        <v>18.5868724124913</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.32606156033342</v>
+        <v>13.75910037750631</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.463714800895273</v>
+        <v>4.613094190996812</v>
       </c>
       <c r="E24">
-        <v>10.02193502769911</v>
+        <v>16.66933550350226</v>
       </c>
       <c r="F24">
-        <v>17.21710083798603</v>
+        <v>20.97684547983967</v>
       </c>
       <c r="G24">
-        <v>20.71676774268628</v>
+        <v>23.09497629555607</v>
       </c>
       <c r="H24">
-        <v>7.722017341049112</v>
+        <v>12.72257404302494</v>
       </c>
       <c r="I24">
-        <v>14.03612326538209</v>
+        <v>23.84212639297209</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.46825602113933</v>
+        <v>11.18044119895266</v>
       </c>
       <c r="L24">
-        <v>7.986292543956281</v>
+        <v>8.733257025970781</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.73396767575762</v>
+        <v>18.35757919728134</v>
       </c>
       <c r="O24">
-        <v>12.70682901039383</v>
+        <v>18.62645158079722</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.14735098384418</v>
+        <v>13.46067635182941</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.083873220383265</v>
+        <v>4.457708416153247</v>
       </c>
       <c r="E25">
-        <v>10.18819483717345</v>
+        <v>16.76867782775995</v>
       </c>
       <c r="F25">
-        <v>16.3576909748374</v>
+        <v>20.92480274107642</v>
       </c>
       <c r="G25">
-        <v>19.5494768024967</v>
+        <v>23.00143005333075</v>
       </c>
       <c r="H25">
-        <v>7.719446742291422</v>
+        <v>12.77588351440136</v>
       </c>
       <c r="I25">
-        <v>14.43082937152746</v>
+        <v>24.01689457252221</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.35248955428433</v>
+        <v>10.67082790829891</v>
       </c>
       <c r="L25">
-        <v>7.287626343660961</v>
+        <v>8.635140051237727</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.02141281040636</v>
+        <v>18.44603276441675</v>
       </c>
       <c r="O25">
-        <v>12.44906297563217</v>
+        <v>18.68414767789146</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_222/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_222/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.24368449333586</v>
+        <v>12.21878767545212</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.337361940648294</v>
+        <v>4.783329669089494</v>
       </c>
       <c r="E2">
-        <v>16.84989591380234</v>
+        <v>10.32929927518101</v>
       </c>
       <c r="F2">
-        <v>20.90432518335481</v>
+        <v>15.7447663789416</v>
       </c>
       <c r="G2">
-        <v>22.95729994256521</v>
+        <v>18.72068886145332</v>
       </c>
       <c r="H2">
-        <v>12.8213740005175</v>
+        <v>7.734230954960319</v>
       </c>
       <c r="I2">
-        <v>24.15813738338176</v>
+        <v>14.75127221642822</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.27389213124116</v>
+        <v>13.46928162632461</v>
       </c>
       <c r="L2">
-        <v>8.566822695259878</v>
+        <v>6.774435808194247</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.51634187932808</v>
+        <v>12.24199200361997</v>
       </c>
       <c r="O2">
-        <v>18.73949653224093</v>
+        <v>12.29306147543475</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.09908436810551</v>
+        <v>11.55373558979792</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.252353523591249</v>
+        <v>4.567120039477643</v>
       </c>
       <c r="E3">
-        <v>16.90999013700898</v>
+        <v>10.43597678222145</v>
       </c>
       <c r="F3">
-        <v>20.90163755142451</v>
+        <v>15.3440303327902</v>
       </c>
       <c r="G3">
-        <v>22.94292176482539</v>
+        <v>18.18129766446669</v>
       </c>
       <c r="H3">
-        <v>12.85609689819221</v>
+        <v>7.75395674697051</v>
       </c>
       <c r="I3">
-        <v>24.26171910333506</v>
+        <v>14.98585795029964</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.992388720086332</v>
+        <v>12.83366375095646</v>
       </c>
       <c r="L3">
-        <v>8.523149269659488</v>
+        <v>6.480641049675423</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.56724572392944</v>
+        <v>12.39719121822748</v>
       </c>
       <c r="O3">
-        <v>18.78500994135695</v>
+        <v>12.20757088202019</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.01176250836271</v>
+        <v>11.12872038353926</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.198551107563008</v>
+        <v>4.428404068719869</v>
       </c>
       <c r="E4">
-        <v>16.94938549518691</v>
+        <v>10.50674076990817</v>
       </c>
       <c r="F4">
-        <v>20.9055191971832</v>
+        <v>15.10597105453772</v>
       </c>
       <c r="G4">
-        <v>22.94176770243483</v>
+        <v>17.86216879663607</v>
       </c>
       <c r="H4">
-        <v>12.87933789514048</v>
+        <v>7.770626332027608</v>
       </c>
       <c r="I4">
-        <v>24.32920374005498</v>
+        <v>15.13814385174919</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.81378304373689</v>
+        <v>12.42575548260771</v>
       </c>
       <c r="L4">
-        <v>8.497685128956274</v>
+        <v>6.2959805652525</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.6001137216249</v>
+        <v>12.49534665328575</v>
       </c>
       <c r="O4">
-        <v>18.81689362474793</v>
+        <v>12.16472522400577</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.97658393914115</v>
+        <v>10.95151201377951</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.176237352236346</v>
+        <v>4.370416667024537</v>
       </c>
       <c r="E5">
-        <v>16.96606811446764</v>
+        <v>10.53687483743503</v>
       </c>
       <c r="F5">
-        <v>20.90849330204366</v>
+        <v>15.01108466309017</v>
       </c>
       <c r="G5">
-        <v>22.94322799543792</v>
+        <v>17.73531116249635</v>
       </c>
       <c r="H5">
-        <v>12.88929189257574</v>
+        <v>7.778531616638277</v>
       </c>
       <c r="I5">
-        <v>24.35768225928737</v>
+        <v>15.20222930561797</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.739617831980595</v>
+        <v>12.25521416015117</v>
       </c>
       <c r="L5">
-        <v>8.487656415489422</v>
+        <v>6.219766601030761</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.61391427322798</v>
+        <v>12.53607201286643</v>
       </c>
       <c r="O5">
-        <v>18.83087534297428</v>
+        <v>12.14963606308114</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.9707681665252</v>
+        <v>10.92185041466541</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.172509146373072</v>
+        <v>4.360701048457987</v>
       </c>
       <c r="E6">
-        <v>16.9688762438348</v>
+        <v>10.54195617785985</v>
       </c>
       <c r="F6">
-        <v>20.90907126008923</v>
+        <v>14.99546041666834</v>
       </c>
       <c r="G6">
-        <v>22.94358706693141</v>
+        <v>17.71444363261531</v>
       </c>
       <c r="H6">
-        <v>12.89097392579934</v>
+        <v>7.779910480382171</v>
       </c>
       <c r="I6">
-        <v>24.36247019500724</v>
+        <v>15.2129918337114</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.727221346276306</v>
+        <v>12.22663918747438</v>
       </c>
       <c r="L6">
-        <v>8.486012414461202</v>
+        <v>6.207056644520219</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.61623043047996</v>
+        <v>12.54287847931422</v>
       </c>
       <c r="O6">
-        <v>18.83325667574419</v>
+        <v>12.14727200423309</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.01128638530501</v>
+        <v>11.12634646592699</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.198251730124563</v>
+        <v>4.427627882353223</v>
       </c>
       <c r="E7">
-        <v>16.94960793628448</v>
+        <v>10.50714195009305</v>
       </c>
       <c r="F7">
-        <v>20.90555366864527</v>
+        <v>15.10468263318475</v>
       </c>
       <c r="G7">
-        <v>22.94177957985786</v>
+        <v>17.86044483270813</v>
       </c>
       <c r="H7">
-        <v>12.87947018210655</v>
+        <v>7.7707284862574</v>
       </c>
       <c r="I7">
-        <v>24.32958385008392</v>
+        <v>15.13899997889066</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.812788329014841</v>
+        <v>12.42347280173204</v>
       </c>
       <c r="L7">
-        <v>8.497548458050549</v>
+        <v>6.294956461556541</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.60029819312589</v>
+        <v>12.49589294069309</v>
       </c>
       <c r="O7">
-        <v>18.81707818527511</v>
+        <v>12.16451220332195</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.19354559312829</v>
+        <v>11.99303550972089</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.308393439166779</v>
+        <v>4.710039888840227</v>
       </c>
       <c r="E8">
-        <v>16.87009853694783</v>
+        <v>10.3649729001645</v>
       </c>
       <c r="F8">
-        <v>20.90225139211925</v>
+        <v>15.60500338046257</v>
       </c>
       <c r="G8">
-        <v>22.95075062659974</v>
+        <v>18.53230067812875</v>
       </c>
       <c r="H8">
-        <v>12.83294778789675</v>
+        <v>7.740065982935534</v>
       </c>
       <c r="I8">
-        <v>24.19304665418053</v>
+        <v>14.83041581234458</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.17806396785093</v>
+        <v>13.25384602575824</v>
       </c>
       <c r="L8">
-        <v>8.551488693006835</v>
+        <v>6.674083304342257</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.53355939450267</v>
+        <v>12.29491444816476</v>
       </c>
       <c r="O8">
-        <v>18.75437134221456</v>
+        <v>12.26155106279689</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.56087524913835</v>
+        <v>13.55405201752258</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.511004335914559</v>
+        <v>5.215118630438277</v>
       </c>
       <c r="E9">
-        <v>16.73396230285814</v>
+        <v>10.12920204017472</v>
       </c>
       <c r="F9">
-        <v>20.93957223615115</v>
+        <v>16.64439331499133</v>
       </c>
       <c r="G9">
-        <v>23.02911343592013</v>
+        <v>19.9383205143652</v>
       </c>
       <c r="H9">
-        <v>12.75695722577475</v>
+        <v>7.717629210184978</v>
       </c>
       <c r="I9">
-        <v>23.95607541693242</v>
+        <v>14.29306757999212</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.84599127654855</v>
+        <v>14.73806929304626</v>
       </c>
       <c r="L9">
-        <v>8.667605346471174</v>
+        <v>7.529783912255093</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.41543519386444</v>
+        <v>11.92321646648631</v>
       </c>
       <c r="O9">
-        <v>18.6627110635667</v>
+        <v>12.53054372078899</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.83451619385099</v>
+        <v>14.60999792126679</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.65092969959322</v>
+        <v>5.554986924327973</v>
       </c>
       <c r="E10">
-        <v>16.64595628592924</v>
+        <v>9.984057131014101</v>
       </c>
       <c r="F10">
-        <v>20.99350266056049</v>
+        <v>17.43669010381096</v>
       </c>
       <c r="G10">
-        <v>23.1234493025956</v>
+        <v>21.01575598213071</v>
       </c>
       <c r="H10">
-        <v>12.71041364603971</v>
+        <v>7.726231466269564</v>
       </c>
       <c r="I10">
-        <v>23.80066802454267</v>
+        <v>13.94321347720222</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.30403181609563</v>
+        <v>15.73630355407585</v>
       </c>
       <c r="L10">
-        <v>8.758679313211221</v>
+        <v>8.1533063080493</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.33635644764661</v>
+        <v>11.6633931791701</v>
       </c>
       <c r="O10">
-        <v>18.6145267774034</v>
+        <v>12.77869974808107</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.95933517427322</v>
+        <v>15.0697240044917</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.712498016448287</v>
+        <v>5.702601968147036</v>
       </c>
       <c r="E11">
-        <v>16.60851906062887</v>
+        <v>9.924560922854916</v>
       </c>
       <c r="F11">
-        <v>21.02373261370031</v>
+        <v>17.80197279443324</v>
       </c>
       <c r="G11">
-        <v>23.17424689243916</v>
+        <v>21.51366336519489</v>
       </c>
       <c r="H11">
-        <v>12.69125525512587</v>
+        <v>7.73604702415086</v>
       </c>
       <c r="I11">
-        <v>23.73401493414901</v>
+        <v>13.79473402629492</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.50473418890414</v>
+        <v>16.16978484321584</v>
       </c>
       <c r="L11">
-        <v>8.80124015327614</v>
+        <v>8.422868664875418</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.30204108056358</v>
+        <v>11.5479894017132</v>
       </c>
       <c r="O11">
-        <v>18.59677846294728</v>
+        <v>12.90299057851139</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.00660943796252</v>
+        <v>15.24079166826953</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.735501330120637</v>
+        <v>5.757480804981641</v>
       </c>
       <c r="E12">
-        <v>16.59471534308652</v>
+        <v>9.903009570195746</v>
       </c>
       <c r="F12">
-        <v>21.03599227551651</v>
+        <v>17.94088940877234</v>
       </c>
       <c r="G12">
-        <v>23.19460472459778</v>
+        <v>21.70318296217866</v>
       </c>
       <c r="H12">
-        <v>12.68429006892462</v>
+        <v>7.74065000376211</v>
       </c>
       <c r="I12">
-        <v>23.70935555392321</v>
+        <v>13.74013098897508</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.57959129146671</v>
+        <v>16.33093201128717</v>
       </c>
       <c r="L12">
-        <v>8.817508672190813</v>
+        <v>8.522931853005304</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.28928413670351</v>
+        <v>11.50468432058041</v>
       </c>
       <c r="O12">
-        <v>18.59065804466384</v>
+        <v>12.95172293651514</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.99642836208732</v>
+        <v>15.20408423536196</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.730561173546151</v>
+        <v>5.745707211847869</v>
       </c>
       <c r="E13">
-        <v>16.59767164186959</v>
+        <v>9.907606865084292</v>
       </c>
       <c r="F13">
-        <v>21.03331593498239</v>
+        <v>17.91094650977135</v>
       </c>
       <c r="G13">
-        <v>23.19017061263372</v>
+        <v>21.66232541216644</v>
       </c>
       <c r="H13">
-        <v>12.6857772630317</v>
+        <v>7.739618669748374</v>
       </c>
       <c r="I13">
-        <v>23.71464057523398</v>
+        <v>13.7518170427056</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.56352101089756</v>
+        <v>16.29636012302446</v>
       </c>
       <c r="L13">
-        <v>8.813998387758932</v>
+        <v>8.501470839741776</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.29202102183241</v>
+        <v>11.5139933247261</v>
       </c>
       <c r="O13">
-        <v>18.59194947065621</v>
+        <v>12.94115308233461</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.96322452585241</v>
+        <v>15.08385863974249</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.714396814333885</v>
+        <v>5.70713739064193</v>
       </c>
       <c r="E14">
-        <v>16.607375948997</v>
+        <v>9.92276803407491</v>
       </c>
       <c r="F14">
-        <v>21.02472498844271</v>
+        <v>17.8133902648897</v>
       </c>
       <c r="G14">
-        <v>23.17589933345065</v>
+        <v>21.52923653825451</v>
       </c>
       <c r="H14">
-        <v>12.69067641952183</v>
+        <v>7.736407743094071</v>
       </c>
       <c r="I14">
-        <v>23.73197455738424</v>
+        <v>13.79020873626757</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.51091589458224</v>
+        <v>16.18310287624273</v>
       </c>
       <c r="L14">
-        <v>8.802575598384935</v>
+        <v>8.431141220971904</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.30098680337725</v>
+        <v>11.54441876420649</v>
       </c>
       <c r="O14">
-        <v>18.59626289459759</v>
+        <v>12.90696629386628</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.94288606822078</v>
+        <v>15.00982226228676</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.704454812868077</v>
+        <v>5.683379091037433</v>
       </c>
       <c r="E15">
-        <v>16.6133686708252</v>
+        <v>9.932183335952129</v>
       </c>
       <c r="F15">
-        <v>21.01956833913748</v>
+        <v>17.75370831657242</v>
       </c>
       <c r="G15">
-        <v>23.16730348376302</v>
+        <v>21.44783839584606</v>
       </c>
       <c r="H15">
-        <v>12.69371501887069</v>
+        <v>7.734557452257211</v>
       </c>
       <c r="I15">
-        <v>23.74266772863328</v>
+        <v>13.81393889123772</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.47854349948939</v>
+        <v>16.11333755427072</v>
       </c>
       <c r="L15">
-        <v>8.795598230393059</v>
+        <v>8.387800349868121</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.30650951269763</v>
+        <v>11.56310661395783</v>
       </c>
       <c r="O15">
-        <v>18.59898320921646</v>
+        <v>12.88624357483664</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.82636230039674</v>
+        <v>14.57953365171891</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.646863116100828</v>
+        <v>5.54519792853025</v>
       </c>
       <c r="E16">
-        <v>16.6484551132478</v>
+        <v>9.988080085772605</v>
       </c>
       <c r="F16">
-        <v>20.99164112393271</v>
+        <v>17.41290649593288</v>
       </c>
       <c r="G16">
-        <v>23.12028723747055</v>
+        <v>20.98336028902491</v>
       </c>
       <c r="H16">
-        <v>12.71170622919351</v>
+        <v>7.725711955588076</v>
       </c>
       <c r="I16">
-        <v>23.80510525340041</v>
+        <v>13.95313903587469</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.29075750509793</v>
+        <v>15.70755613877401</v>
       </c>
       <c r="L16">
-        <v>8.755919686135574</v>
+        <v>8.135407269212298</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.33863232507785</v>
+        <v>11.67099077140156</v>
       </c>
       <c r="O16">
-        <v>18.6157706669114</v>
+        <v>12.77080887842098</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.7549362947969</v>
+        <v>14.31023847055261</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.610990128990146</v>
+        <v>5.458626037269148</v>
       </c>
       <c r="E17">
-        <v>16.67064432826932</v>
+        <v>10.02407099581117</v>
       </c>
       <c r="F17">
-        <v>20.97596312919307</v>
+        <v>17.20500196085768</v>
       </c>
       <c r="G17">
-        <v>23.09345572576078</v>
+        <v>20.70030182569301</v>
       </c>
       <c r="H17">
-        <v>12.72325922247052</v>
+        <v>7.721823807582908</v>
       </c>
       <c r="I17">
-        <v>23.84444359036013</v>
+        <v>14.04132695028949</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.17356253694635</v>
+        <v>15.45331080470921</v>
       </c>
       <c r="L17">
-        <v>8.731860098941615</v>
+        <v>7.976972422598043</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.35876264733074</v>
+        <v>11.7378850433633</v>
       </c>
       <c r="O17">
-        <v>18.62713807944309</v>
+        <v>12.70293443014385</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.7138881882589</v>
+        <v>14.15340748872463</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.590161374437965</v>
+        <v>5.408174602986833</v>
       </c>
       <c r="E18">
-        <v>16.68365146456069</v>
+        <v>10.04538424042118</v>
       </c>
       <c r="F18">
-        <v>20.96748224515095</v>
+        <v>17.08588439512303</v>
       </c>
       <c r="G18">
-        <v>23.07876583121632</v>
+        <v>20.53823392610516</v>
       </c>
       <c r="H18">
-        <v>12.73009381584299</v>
+        <v>7.720140775083488</v>
       </c>
       <c r="I18">
-        <v>23.86745049564172</v>
+        <v>14.09304887273878</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.10543611209122</v>
+        <v>15.30513623121204</v>
       </c>
       <c r="L18">
-        <v>8.718128773119449</v>
+        <v>7.884518678618731</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.37049718163123</v>
+        <v>11.77662388759123</v>
       </c>
       <c r="O18">
-        <v>18.63406887599618</v>
+        <v>12.66496694538575</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.69999713428428</v>
+        <v>14.0999760018185</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.583075893424326</v>
+        <v>5.390980164948011</v>
       </c>
       <c r="E19">
-        <v>16.68809746429293</v>
+        <v>10.05270452488047</v>
       </c>
       <c r="F19">
-        <v>20.96470313467017</v>
+        <v>17.04563627846152</v>
       </c>
       <c r="G19">
-        <v>23.07392000384242</v>
+        <v>20.48349225399001</v>
       </c>
       <c r="H19">
-        <v>12.73244045851703</v>
+        <v>7.719664826758185</v>
       </c>
       <c r="I19">
-        <v>23.87530561482442</v>
+        <v>14.11072998596866</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.08224756296332</v>
+        <v>15.25463509720351</v>
       </c>
       <c r="L19">
-        <v>8.713498308727919</v>
+        <v>7.852987374751249</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.37449713132024</v>
+        <v>11.78978554400424</v>
       </c>
       <c r="O19">
-        <v>18.63648292251731</v>
+        <v>12.65229505861126</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.76253646741779</v>
+        <v>14.33910657533195</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.614829195754901</v>
+        <v>5.467909932831804</v>
       </c>
       <c r="E20">
-        <v>16.66825694881236</v>
+        <v>10.02017606069186</v>
       </c>
       <c r="F20">
-        <v>20.97757658086126</v>
+        <v>17.2270865765804</v>
       </c>
       <c r="G20">
-        <v>23.09623517989695</v>
+        <v>20.73035841124414</v>
       </c>
       <c r="H20">
-        <v>12.72200976191928</v>
+        <v>7.722180170022368</v>
       </c>
       <c r="I20">
-        <v>23.84021657790452</v>
+        <v>14.03183523704068</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.18611287608119</v>
+        <v>15.48057667908685</v>
       </c>
       <c r="L20">
-        <v>8.734410275974616</v>
+        <v>7.993975272231635</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.3566035901898</v>
+        <v>11.73073685266105</v>
       </c>
       <c r="O20">
-        <v>18.62588736455026</v>
+        <v>12.71004861621289</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.97297740003204</v>
+        <v>15.11925414883585</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.719153214039629</v>
+        <v>5.71849405547588</v>
       </c>
       <c r="E21">
-        <v>16.60451544116381</v>
+        <v>9.918287947488873</v>
       </c>
       <c r="F21">
-        <v>21.02722637424105</v>
+        <v>17.8420296411279</v>
       </c>
       <c r="G21">
-        <v>23.18006080965002</v>
+        <v>21.56830264765629</v>
       </c>
       <c r="H21">
-        <v>12.68922955677678</v>
+        <v>7.737326526309245</v>
       </c>
       <c r="I21">
-        <v>23.72686739131603</v>
+        <v>13.77888736884564</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.52639867278709</v>
+        <v>16.21645101758769</v>
       </c>
       <c r="L21">
-        <v>8.805926721216572</v>
+        <v>8.451853301912559</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.29834689607983</v>
+        <v>11.53547137497159</v>
       </c>
       <c r="O21">
-        <v>18.59497963592964</v>
+        <v>12.91696237858424</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.11054116527491</v>
+        <v>15.6115040395297</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.785515899113601</v>
+        <v>5.876316879608887</v>
       </c>
       <c r="E22">
-        <v>16.56503027016018</v>
+        <v>9.85742197344997</v>
       </c>
       <c r="F22">
-        <v>21.06440577946436</v>
+        <v>18.2473381894582</v>
       </c>
       <c r="G22">
-        <v>23.24137813614813</v>
+        <v>22.12156190554337</v>
       </c>
       <c r="H22">
-        <v>12.66949426351676</v>
+        <v>7.752407313231174</v>
       </c>
       <c r="I22">
-        <v>23.65617164619306</v>
+        <v>13.62307871336955</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.74210717616096</v>
+        <v>16.67987455869373</v>
       </c>
       <c r="L22">
-        <v>8.853545560211913</v>
+        <v>8.739369434766093</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.26165695494869</v>
+        <v>11.41015895692598</v>
       </c>
       <c r="O22">
-        <v>18.57827989906836</v>
+        <v>13.06191281732879</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.03713142828785</v>
+        <v>15.35040756048272</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.750266926363346</v>
+        <v>5.792632008541245</v>
       </c>
       <c r="E23">
-        <v>16.58590553414052</v>
+        <v>9.889369934810462</v>
       </c>
       <c r="F23">
-        <v>21.04413215449667</v>
+        <v>18.03073854344236</v>
       </c>
       <c r="G23">
-        <v>23.20805858484335</v>
+        <v>21.82580738979192</v>
       </c>
       <c r="H23">
-        <v>12.67987287229665</v>
+        <v>7.743871980156962</v>
       </c>
       <c r="I23">
-        <v>23.69359380495335</v>
+        <v>13.70533511537581</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.62760440333908</v>
+        <v>16.43414889849191</v>
       </c>
       <c r="L23">
-        <v>8.828053766795131</v>
+        <v>8.586986078561422</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.281112698814</v>
+        <v>11.47683139511868</v>
       </c>
       <c r="O23">
-        <v>18.5868724124913</v>
+        <v>12.98365315413769</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.75910037750631</v>
+        <v>14.32606156033342</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.613094190996812</v>
+        <v>5.463714800895341</v>
       </c>
       <c r="E24">
-        <v>16.66933550350226</v>
+        <v>10.02193502769912</v>
       </c>
       <c r="F24">
-        <v>20.97684547983967</v>
+        <v>17.21710083798595</v>
       </c>
       <c r="G24">
-        <v>23.09497629555607</v>
+        <v>20.71676774268624</v>
       </c>
       <c r="H24">
-        <v>12.72257404302494</v>
+        <v>7.722017341049014</v>
       </c>
       <c r="I24">
-        <v>23.84212639297209</v>
+        <v>14.03612326538207</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.18044119895266</v>
+        <v>15.46825602113938</v>
       </c>
       <c r="L24">
-        <v>8.733257025970781</v>
+        <v>7.986292543956313</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.35757919728134</v>
+        <v>11.73396767575762</v>
       </c>
       <c r="O24">
-        <v>18.62645158079722</v>
+        <v>12.70682901039378</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.46067635182941</v>
+        <v>13.14735098384421</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.457708416153247</v>
+        <v>5.083873220383146</v>
       </c>
       <c r="E25">
-        <v>16.76867782775995</v>
+        <v>10.18819483717345</v>
       </c>
       <c r="F25">
-        <v>20.92480274107642</v>
+        <v>16.35769097483745</v>
       </c>
       <c r="G25">
-        <v>23.00143005333075</v>
+        <v>19.54947680249675</v>
       </c>
       <c r="H25">
-        <v>12.77588351440136</v>
+        <v>7.719446742291317</v>
       </c>
       <c r="I25">
-        <v>24.01689457252221</v>
+        <v>14.43082937152749</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.67082790829891</v>
+        <v>14.35248955428434</v>
       </c>
       <c r="L25">
-        <v>8.635140051237727</v>
+        <v>7.287626343660992</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.44603276441675</v>
+        <v>12.02141281040636</v>
       </c>
       <c r="O25">
-        <v>18.68414767789146</v>
+        <v>12.44906297563217</v>
       </c>
     </row>
   </sheetData>
